--- a/Data/EstudiantesUnicosTotales.xlsx
+++ b/Data/EstudiantesUnicosTotales.xlsx
@@ -8,22 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Daniela\Estudio\Universidad\BCV\Dashboard_IBIO\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F63DE3-F4D4-4398-8E2B-795927D81600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5AB80D-1BDA-4B84-8A19-1B39BD4C82D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5448" yWindow="744" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EstudiantesTotalesPeriodoUnicos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="EstudiantesTotalesPeriodoUnicos">EstudiantesTotalesPeriodoUnicos!$A$1:$B$14</definedName>
+    <definedName name="EstudiantesTotalesPeriodoUnicos">EstudiantesTotalesPeriodoUnicos!$A$1:$C$14</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Periodo</t>
   </si>
@@ -33,17 +44,17 @@
   <si>
     <t>Total Estudiantes IBIO</t>
   </si>
+  <si>
+    <t>IBIO1010</t>
+  </si>
+  <si>
+    <t>IBIO3870</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,170 +444,310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>201810</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
+        <v>215</v>
+      </c>
+      <c r="C2">
         <v>193</v>
       </c>
-      <c r="C2" s="1">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(C2:C3)</f>
+        <v>203</v>
+      </c>
+      <c r="H2">
+        <f>SUM(D2:D3)-(SUM(E2:E3))</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>201820</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
+        <v>233</v>
+      </c>
+      <c r="C3">
         <v>213</v>
       </c>
-      <c r="C3" s="1">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>57</v>
+      </c>
+      <c r="E3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>201910</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
+        <v>255</v>
+      </c>
+      <c r="C4">
         <v>235</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(C4:C5)</f>
         <v>255</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f>SUM(D4:D5)-(SUM(E4:E5))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>201920</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
+        <v>295</v>
+      </c>
+      <c r="C5">
         <v>275</v>
       </c>
-      <c r="C5" s="1">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>202010</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
+        <v>358</v>
+      </c>
+      <c r="C6">
         <v>337</v>
       </c>
-      <c r="C6" s="1">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>91</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE(C6:C7)</f>
+        <v>340.5</v>
+      </c>
+      <c r="H6">
+        <f>SUM(D6:D7)-(SUM(E6:E7))</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>202020</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
+        <v>370</v>
+      </c>
+      <c r="C7">
         <v>344</v>
       </c>
-      <c r="C7" s="1">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>202110</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
+        <v>408</v>
+      </c>
+      <c r="C8">
         <v>378</v>
       </c>
-      <c r="C8" s="1">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(C8:C9)</f>
+        <v>387</v>
+      </c>
+      <c r="H8">
+        <f>SUM(D8:D9)-(SUM(E8:E9))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>202120</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
+        <v>418</v>
+      </c>
+      <c r="C9">
         <v>396</v>
       </c>
-      <c r="C9" s="1">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>202210</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
+        <v>426</v>
+      </c>
+      <c r="C10">
         <v>398</v>
       </c>
-      <c r="C10" s="1">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>64</v>
+      </c>
+      <c r="E10">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(C10:C11)</f>
+        <v>408.5</v>
+      </c>
+      <c r="H10">
+        <f>SUM(D10:D11)-(SUM(E10:E11))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>202220</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
+        <v>442</v>
+      </c>
+      <c r="C11">
         <v>419</v>
       </c>
-      <c r="C11" s="1">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>57</v>
+      </c>
+      <c r="E11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>202310</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
+        <v>433</v>
+      </c>
+      <c r="C12">
         <v>406</v>
       </c>
-      <c r="C12" s="1">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <v>42</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGE(C12:C13)</f>
+        <v>399.5</v>
+      </c>
+      <c r="H12">
+        <f>SUM(D12:D13)-(SUM(E12:E13))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>202320</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
+        <v>425</v>
+      </c>
+      <c r="C13">
         <v>393</v>
       </c>
-      <c r="C13" s="1">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>202410</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
+        <v>396</v>
+      </c>
+      <c r="C14">
         <v>368</v>
       </c>
-      <c r="C14" s="1">
-        <v>396</v>
+      <c r="D14">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>51</v>
+      </c>
+      <c r="G14">
+        <f>C14</f>
+        <v>368</v>
+      </c>
+      <c r="H14">
+        <f>D14-E14</f>
+        <v>-6</v>
       </c>
     </row>
   </sheetData>
